--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/2_GBA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/2_GBA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\2_GBA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360FE3B-322B-42FA-A381-3AB69BD20438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CC2401-1A3C-4E09-8C17-BA9D820D0719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="45" windowWidth="16890" windowHeight="15525" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -1519,15 +1519,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,6 +1644,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4603,16 +4603,16 @@
         <f>Marks!K35</f>
         <v>80</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="44"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4812,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4841,10 +4841,10 @@
       <c r="C1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>165</v>
       </c>
       <c r="F1" s="25" t="s">
@@ -4872,8 +4872,8 @@
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="41">
         <v>3</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="I2" s="39">
         <v>10</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="65">
         <v>45</v>
       </c>
       <c r="K2" s="40">
@@ -4904,10 +4904,10 @@
       <c r="C3" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1</v>
       </c>
       <c r="F3" s="29">
@@ -4919,23 +4919,23 @@
       <c r="H3" s="30">
         <v>13</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="54">
         <v>8</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="66">
         <v>40</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="55">
         <f>SUM(F3:J3)</f>
         <v>78</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -4947,8 +4947,8 @@
       <c r="C4" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4" s="22">
@@ -4960,23 +4960,23 @@
       <c r="H4" s="23">
         <v>13</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="57">
         <v>8</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="67">
         <v>40</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="58">
         <f t="shared" ref="K4:K38" si="0">SUM(F4:J4)</f>
         <v>78</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -4988,75 +4988,75 @@
       <c r="C5" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>1</v>
       </c>
       <c r="F5" s="22">
         <v>2</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="59">
         <v>15</v>
       </c>
       <c r="H5" s="23">
         <v>13</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="57">
         <v>8</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="67">
         <v>40</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="58">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53">
         <v>1</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="50">
         <v>2</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="51">
         <v>15</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="51">
         <v>13</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="60">
         <v>8</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="68">
         <v>40</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="61">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -5068,38 +5068,38 @@
       <c r="C7" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="44">
         <v>2</v>
       </c>
       <c r="F7" s="29">
         <v>3</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="62">
         <v>5</v>
       </c>
       <c r="H7" s="30">
         <v>4</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="54">
         <v>8</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="66">
         <v>38</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="55">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -5111,8 +5111,8 @@
       <c r="C8" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45">
         <v>2</v>
       </c>
       <c r="F8" s="22">
@@ -5124,23 +5124,23 @@
       <c r="H8" s="23">
         <v>4</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="57">
         <v>8</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="67">
         <v>38</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="58">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -5152,8 +5152,8 @@
       <c r="C9" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
         <v>2</v>
       </c>
       <c r="F9" s="22">
@@ -5165,64 +5165,64 @@
       <c r="H9" s="23">
         <v>4</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="57">
         <v>8</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="67">
         <v>38</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="58">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53">
         <v>2</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="50">
         <v>3</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="51">
         <v>5</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="51">
         <v>4</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="60">
         <v>8</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="68">
         <v>38</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="61">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
@@ -5234,10 +5234,10 @@
       <c r="C11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="44">
         <v>3</v>
       </c>
       <c r="F11" s="29">
@@ -5249,23 +5249,23 @@
       <c r="H11" s="30">
         <v>2</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <v>8</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="66">
         <v>40</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="55">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -5277,8 +5277,8 @@
       <c r="C12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45">
         <v>3</v>
       </c>
       <c r="F12" s="22">
@@ -5290,23 +5290,23 @@
       <c r="H12" s="23">
         <v>2</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="57">
         <v>8</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="67">
         <v>40</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="58">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -5318,8 +5318,8 @@
       <c r="C13" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45">
         <v>3</v>
       </c>
       <c r="F13" s="22">
@@ -5331,64 +5331,64 @@
       <c r="H13" s="23">
         <v>2</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="57">
         <v>8</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="67">
         <v>40</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="58">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53">
         <v>3</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="50">
         <v>1</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="51">
         <v>7</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="51">
         <v>2</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="60">
         <v>8</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="68">
         <v>40</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="61">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -5400,10 +5400,10 @@
       <c r="C15" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="44">
         <v>4</v>
       </c>
       <c r="F15" s="29">
@@ -5415,66 +5415,66 @@
       <c r="H15" s="30">
         <v>2</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="54">
         <v>8</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="66">
         <v>40</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="55">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="49">
         <v>4</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="46">
         <v>3</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="47">
         <v>8</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="47">
         <v>2</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="63">
         <v>8</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="69">
         <v>40</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="64">
         <f>SUM(F16:J16)</f>
         <v>61</v>
       </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -5486,8 +5486,8 @@
       <c r="C17" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45">
         <v>4</v>
       </c>
       <c r="F17" s="22">
@@ -5499,23 +5499,23 @@
       <c r="H17" s="23">
         <v>2</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="57">
         <v>8</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="67">
         <v>40</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="58">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -5527,8 +5527,8 @@
       <c r="C18" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48">
+      <c r="D18" s="45"/>
+      <c r="E18" s="45">
         <v>4</v>
       </c>
       <c r="F18" s="22">
@@ -5540,64 +5540,64 @@
       <c r="H18" s="23">
         <v>2</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="57">
         <v>8</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="67">
         <v>40</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="58">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53">
         <v>4</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="50">
         <v>3</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="51">
         <v>8</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="51">
         <v>2</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="60">
         <v>8</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="68">
         <v>40</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="61">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
@@ -5609,10 +5609,10 @@
       <c r="C20" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="44">
         <v>5</v>
       </c>
       <c r="F20" s="29">
@@ -5624,23 +5624,23 @@
       <c r="H20" s="30">
         <v>2</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="54">
         <v>3</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="66">
         <v>36</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="55">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
@@ -5652,8 +5652,8 @@
       <c r="C21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45">
         <v>5</v>
       </c>
       <c r="F21" s="22">
@@ -5665,23 +5665,23 @@
       <c r="H21" s="23">
         <v>2</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="57">
         <v>3</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="67">
         <v>36</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
@@ -5693,8 +5693,8 @@
       <c r="C22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45">
         <v>5</v>
       </c>
       <c r="F22" s="22">
@@ -5706,64 +5706,64 @@
       <c r="H22" s="23">
         <v>2</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="57">
         <v>3</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="67">
         <v>36</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53">
         <v>5</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="50">
         <v>1</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="51">
         <v>8</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="51">
         <v>2</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="60">
         <v>3</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="68">
         <v>36</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="61">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
@@ -5775,10 +5775,10 @@
       <c r="C24" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="44">
         <v>6</v>
       </c>
       <c r="F24" s="29">
@@ -5790,23 +5790,23 @@
       <c r="H24" s="30">
         <v>2</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="54">
         <v>8</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="66">
         <v>40</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="55">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -5818,8 +5818,8 @@
       <c r="C25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45">
         <v>6</v>
       </c>
       <c r="F25" s="22">
@@ -5831,23 +5831,23 @@
       <c r="H25" s="23">
         <v>2</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="57">
         <v>8</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="67">
         <v>40</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="58">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
@@ -5859,8 +5859,8 @@
       <c r="C26" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45">
         <v>6</v>
       </c>
       <c r="F26" s="22">
@@ -5872,64 +5872,64 @@
       <c r="H26" s="23">
         <v>2</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="57">
         <v>8</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="67">
         <v>40</v>
       </c>
-      <c r="K26" s="61">
+      <c r="K26" s="58">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
     </row>
     <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53">
         <v>6</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="50">
         <v>1</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="51">
         <v>13</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="51">
         <v>2</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="60">
         <v>8</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="68">
         <v>40</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="61">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
@@ -5941,10 +5941,10 @@
       <c r="C28" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="44">
         <v>7</v>
       </c>
       <c r="F28" s="29">
@@ -5956,23 +5956,23 @@
       <c r="H28" s="30">
         <v>4</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="54">
         <v>6</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="66">
         <v>38</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K28" s="55">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
@@ -5984,8 +5984,8 @@
       <c r="C29" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48">
+      <c r="D29" s="45"/>
+      <c r="E29" s="45">
         <v>7</v>
       </c>
       <c r="F29" s="22">
@@ -5997,64 +5997,64 @@
       <c r="H29" s="23">
         <v>4</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="57">
         <v>6</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="67">
         <v>38</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="58">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56">
+      <c r="D30" s="53"/>
+      <c r="E30" s="53">
         <v>7</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="50">
         <v>3</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="51">
         <v>11</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="51">
         <v>4</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="60">
         <v>6</v>
       </c>
-      <c r="J30" s="71">
+      <c r="J30" s="68">
         <v>38</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="61">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
@@ -6066,10 +6066,10 @@
       <c r="C31" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="44">
         <v>8</v>
       </c>
       <c r="F31" s="29">
@@ -6081,23 +6081,23 @@
       <c r="H31" s="30">
         <v>14</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="54">
         <v>8</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J31" s="66">
         <v>40</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="55">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -6109,8 +6109,8 @@
       <c r="C32" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45">
         <v>8</v>
       </c>
       <c r="F32" s="22">
@@ -6122,23 +6122,23 @@
       <c r="H32" s="23">
         <v>14</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="57">
         <v>8</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="67">
         <v>40</v>
       </c>
-      <c r="K32" s="61">
+      <c r="K32" s="58">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -6150,8 +6150,8 @@
       <c r="C33" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48">
+      <c r="D33" s="45"/>
+      <c r="E33" s="45">
         <v>8</v>
       </c>
       <c r="F33" s="22">
@@ -6163,23 +6163,23 @@
       <c r="H33" s="23">
         <v>14</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="57">
         <v>8</v>
       </c>
-      <c r="J33" s="70">
+      <c r="J33" s="67">
         <v>40</v>
       </c>
-      <c r="K33" s="61">
+      <c r="K33" s="58">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -6191,8 +6191,8 @@
       <c r="C34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48">
+      <c r="D34" s="45"/>
+      <c r="E34" s="45">
         <v>8</v>
       </c>
       <c r="F34" s="22">
@@ -6204,63 +6204,63 @@
       <c r="H34" s="23">
         <v>14</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="57">
         <v>8</v>
       </c>
-      <c r="J34" s="70">
+      <c r="J34" s="67">
         <v>40</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="58">
         <f>SUM(F34:J34)</f>
         <v>80</v>
       </c>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
     </row>
     <row r="35" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83">
+      <c r="D35" s="80"/>
+      <c r="E35" s="80">
         <v>8</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="77">
         <v>3</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="78">
         <v>15</v>
       </c>
-      <c r="H35" s="81">
+      <c r="H35" s="78">
         <v>14</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="81">
         <v>8</v>
       </c>
-      <c r="J35" s="85">
+      <c r="J35" s="82">
         <v>40</v>
       </c>
-      <c r="K35" s="86">
+      <c r="K35" s="83">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
@@ -6272,10 +6272,10 @@
       <c r="C36" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="44">
         <v>9</v>
       </c>
       <c r="F36" s="29">
@@ -6287,23 +6287,23 @@
       <c r="H36" s="30">
         <v>14</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="54">
         <v>8</v>
       </c>
-      <c r="J36" s="69">
+      <c r="J36" s="66">
         <v>40</v>
       </c>
-      <c r="K36" s="58">
+      <c r="K36" s="55">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
@@ -6315,8 +6315,8 @@
       <c r="C37" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45">
         <v>9</v>
       </c>
       <c r="F37" s="22">
@@ -6328,268 +6328,268 @@
       <c r="H37" s="23">
         <v>14</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="57">
         <v>8</v>
       </c>
-      <c r="J37" s="70">
+      <c r="J37" s="67">
         <v>40</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="58">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
     </row>
     <row r="38" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56">
+      <c r="D38" s="53"/>
+      <c r="E38" s="53">
         <v>9</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="50">
         <v>2</v>
       </c>
-      <c r="G38" s="54">
+      <c r="G38" s="51">
         <v>15</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="51">
         <v>14</v>
       </c>
-      <c r="I38" s="63">
+      <c r="I38" s="60">
         <v>8</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="68">
         <v>40</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="61">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="L38" s="59">
+      <c r="L38" s="56">
         <f>COUNT(K3:K40)</f>
         <v>36</v>
       </c>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76">
+      <c r="D39" s="73"/>
+      <c r="E39" s="73">
         <v>10</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="59" t="s">
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
     </row>
     <row r="40" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56">
+      <c r="D40" s="53"/>
+      <c r="E40" s="53">
         <v>10</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="59" t="s">
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
+      <c r="A42" s="56">
         <f>670009-625429</f>
         <v>44580</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
